--- a/raw_data/20200818_saline/20200818_Sensor1_Test_89.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_89.xlsx
@@ -1,1339 +1,1755 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCB78B-DA05-46A6-A2A4-ED7ACABA6FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>79388.868533</v>
+        <v>79388.868533000001</v>
       </c>
       <c r="B2" s="1">
-        <v>22.052463</v>
+        <v>22.052462999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>904.988000</v>
+        <v>904.98800000000006</v>
       </c>
       <c r="D2" s="1">
-        <v>-199.891000</v>
+        <v>-199.89099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>79398.915000</v>
+        <v>79398.914999999994</v>
       </c>
       <c r="G2" s="1">
-        <v>22.055254</v>
+        <v>22.055254000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>923.238000</v>
+        <v>923.23800000000006</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.731000</v>
+        <v>-169.73099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>79409.694555</v>
+        <v>79409.694554999995</v>
       </c>
       <c r="L2" s="1">
-        <v>22.058248</v>
+        <v>22.058247999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>947.132000</v>
+        <v>947.13199999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.086000</v>
+        <v>-121.086</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>79420.234044</v>
+        <v>79420.234043999997</v>
       </c>
       <c r="Q2" s="1">
         <v>22.061176</v>
       </c>
       <c r="R2" s="1">
-        <v>954.261000</v>
+        <v>954.26099999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.764000</v>
+        <v>-104.764</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>79430.795854</v>
+        <v>79430.795853999996</v>
       </c>
       <c r="V2" s="1">
-        <v>22.064110</v>
+        <v>22.064109999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>961.180000</v>
+        <v>961.18</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.657100</v>
+        <v>-89.6571</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>79440.929649</v>
+        <v>79440.929648999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.066925</v>
+        <v>22.066925000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>968.496000</v>
+        <v>968.49599999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.641100</v>
+        <v>-77.641099999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>79451.554420</v>
+        <v>79451.55442</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.069876</v>
+        <v>22.069876000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>973.426000</v>
+        <v>973.42600000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.274700</v>
+        <v>-75.274699999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>79462.022980</v>
+        <v>79462.022979999994</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.072784</v>
+        <v>22.072783999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>980.818000</v>
+        <v>980.81799999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.790500</v>
+        <v>-79.790499999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>79472.911686</v>
+        <v>79472.911686000007</v>
       </c>
       <c r="AP2" s="1">
         <v>22.075809</v>
       </c>
       <c r="AQ2" s="1">
-        <v>988.982000</v>
+        <v>988.98199999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.093700</v>
+        <v>-91.093699999999998</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>79483.630710</v>
+        <v>79483.630709999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.078786</v>
+        <v>22.078786000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>998.856000</v>
+        <v>998.85599999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.457000</v>
+        <v>-108.45699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>79494.742569</v>
+        <v>79494.742568999995</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.081873</v>
+        <v>22.081873000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.925000</v>
+        <v>-123.925</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>79505.715595</v>
+        <v>79505.715595000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.084921</v>
+        <v>22.084921000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1045.770000</v>
+        <v>1045.77</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.116000</v>
+        <v>-195.11600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>79516.718812</v>
+        <v>79516.718812000006</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.087977</v>
+        <v>22.087976999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1112.670000</v>
+        <v>1112.67</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.208000</v>
+        <v>-310.20800000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>79528.450685</v>
+        <v>79528.450685000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.091236</v>
+        <v>22.091235999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1221.110000</v>
+        <v>1221.1099999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-490.439000</v>
+        <v>-490.43900000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>79538.909354</v>
+        <v>79538.909354000003</v>
       </c>
       <c r="BT2" s="1">
         <v>22.094141</v>
       </c>
       <c r="BU2" s="1">
-        <v>1342.290000</v>
+        <v>1342.29</v>
       </c>
       <c r="BV2" s="1">
-        <v>-687.359000</v>
+        <v>-687.35900000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>79550.037072</v>
+        <v>79550.037072000006</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.097233</v>
+        <v>22.097232999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1477.120000</v>
+        <v>1477.12</v>
       </c>
       <c r="CA2" s="1">
-        <v>-896.133000</v>
+        <v>-896.13300000000004</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>79561.496673</v>
+        <v>79561.496673000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.100416</v>
+        <v>22.100415999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.530000</v>
+        <v>1826.53</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1391.310000</v>
+        <v>-1391.31</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>79389.297574</v>
+        <v>79389.297573999997</v>
       </c>
       <c r="B3" s="1">
-        <v>22.052583</v>
+        <v>22.052582999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>904.796000</v>
+        <v>904.79600000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-199.897000</v>
+        <v>-199.89699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>79399.636183</v>
+        <v>79399.636182999995</v>
       </c>
       <c r="G3" s="1">
-        <v>22.055454</v>
+        <v>22.055454000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>923.012000</v>
+        <v>923.01199999999994</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.576000</v>
+        <v>-169.57599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>79410.113673</v>
       </c>
       <c r="L3" s="1">
-        <v>22.058365</v>
+        <v>22.058364999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>947.103000</v>
+        <v>947.10299999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.075000</v>
+        <v>-121.075</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>79420.618458</v>
+        <v>79420.618457999997</v>
       </c>
       <c r="Q3" s="1">
         <v>22.061283</v>
       </c>
       <c r="R3" s="1">
-        <v>954.205000</v>
+        <v>954.20500000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.746000</v>
+        <v>-104.746</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>79431.168205</v>
+        <v>79431.168204999994</v>
       </c>
       <c r="V3" s="1">
-        <v>22.064213</v>
+        <v>22.064212999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>961.145000</v>
+        <v>961.14499999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.503000</v>
+        <v>-89.503</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>79441.317986</v>
+        <v>79441.317985999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.067033</v>
+        <v>22.067032999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>968.495000</v>
+        <v>968.495</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.669600</v>
+        <v>-77.669600000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>79452.279570</v>
+        <v>79452.279569999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.070078</v>
+        <v>22.070077999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>973.508000</v>
+        <v>973.50800000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.152400</v>
+        <v>-75.1524</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>79462.755075</v>
+        <v>79462.755074999994</v>
       </c>
       <c r="AK3" s="1">
-        <v>22.072988</v>
+        <v>22.072987999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>980.811000</v>
+        <v>980.81100000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.785300</v>
+        <v>-79.785300000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>79473.272245</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.075909</v>
+        <v>22.075908999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>988.974000</v>
+        <v>988.97400000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.070500</v>
+        <v>-91.070499999999996</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>79484.018072</v>
+        <v>79484.018072000006</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.078894</v>
+        <v>22.078893999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>998.863000</v>
+        <v>998.86300000000006</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.451000</v>
+        <v>-108.45099999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>79495.144328</v>
+        <v>79495.144327999995</v>
       </c>
       <c r="AZ3" s="1">
         <v>22.081985</v>
       </c>
       <c r="BA3" s="1">
-        <v>1007.130000</v>
+        <v>1007.13</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.920000</v>
+        <v>-123.92</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>79506.405993</v>
+        <v>79506.405992999993</v>
       </c>
       <c r="BE3" s="1">
         <v>22.085113</v>
       </c>
       <c r="BF3" s="1">
-        <v>1045.780000</v>
+        <v>1045.78</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.131000</v>
+        <v>-195.131</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>79517.455867</v>
+        <v>79517.455866999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>22.088182</v>
       </c>
       <c r="BK3" s="1">
-        <v>1112.690000</v>
+        <v>1112.69</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.232000</v>
+        <v>-310.23200000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>79528.576172</v>
+        <v>79528.576172000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.091271</v>
+        <v>22.091270999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1221.090000</v>
+        <v>1221.0899999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-490.481000</v>
+        <v>-490.48099999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>79539.355230</v>
+        <v>79539.355230000001</v>
       </c>
       <c r="BT3" s="1">
         <v>22.094265</v>
       </c>
       <c r="BU3" s="1">
-        <v>1342.300000</v>
+        <v>1342.3</v>
       </c>
       <c r="BV3" s="1">
-        <v>-687.498000</v>
+        <v>-687.49800000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>79550.517732</v>
+        <v>79550.517731999993</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.097366</v>
+        <v>22.097366000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1477.050000</v>
+        <v>1477.05</v>
       </c>
       <c r="CA3" s="1">
-        <v>-895.923000</v>
+        <v>-895.923</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>79562.062137</v>
+        <v>79562.062137000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.100573</v>
+        <v>22.100573000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1826.430000</v>
+        <v>1826.43</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1391.260000</v>
+        <v>-1391.26</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>79389.576324</v>
+        <v>79389.576323999994</v>
       </c>
       <c r="B4" s="1">
-        <v>22.052660</v>
+        <v>22.052659999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>904.850000</v>
+        <v>904.85</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.006000</v>
+        <v>-200.006</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>79399.982422</v>
+        <v>79399.982422000001</v>
       </c>
       <c r="G4" s="1">
-        <v>22.055551</v>
+        <v>22.055551000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>922.621000</v>
+        <v>922.62099999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.527000</v>
+        <v>-169.52699999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>79410.457400</v>
+        <v>79410.457399999999</v>
       </c>
       <c r="L4" s="1">
-        <v>22.058460</v>
+        <v>22.05846</v>
       </c>
       <c r="M4" s="1">
-        <v>946.998000</v>
+        <v>946.99800000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.108000</v>
+        <v>-121.108</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>79420.965148</v>
+        <v>79420.965148000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.061379</v>
+        <v>22.061378999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>954.230000</v>
+        <v>954.23</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.731000</v>
+        <v>-104.73099999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>79431.512573</v>
       </c>
       <c r="V4" s="1">
-        <v>22.064309</v>
+        <v>22.064309000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>961.101000</v>
+        <v>961.101</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.423200</v>
+        <v>-89.423199999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>79442.017212</v>
+        <v>79442.017212000006</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.067227</v>
+        <v>22.067226999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>968.537000</v>
+        <v>968.53700000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.724500</v>
+        <v>-77.724500000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>79452.615376</v>
+        <v>79452.615376000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.070171</v>
+        <v>22.070170999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>973.478000</v>
+        <v>973.47799999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.340400</v>
+        <v>-75.340400000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>79463.102275</v>
+        <v>79463.102274999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>22.073084</v>
+        <v>22.073084000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>980.801000</v>
+        <v>980.80100000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.769700</v>
+        <v>-79.7697</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>79473.637797</v>
+        <v>79473.637797000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.076010</v>
+        <v>22.07601</v>
       </c>
       <c r="AQ4" s="1">
-        <v>988.966000</v>
+        <v>988.96600000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.077200</v>
+        <v>-91.077200000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>79484.686680</v>
+        <v>79484.686679999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.079080</v>
+        <v>22.079080000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>998.842000</v>
+        <v>998.84199999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.456000</v>
+        <v>-108.456</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>79495.819880</v>
+        <v>79495.819879999995</v>
       </c>
       <c r="AZ4" s="1">
         <v>22.082172</v>
       </c>
       <c r="BA4" s="1">
-        <v>1007.140000</v>
+        <v>1007.14</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.913000</v>
+        <v>-123.913</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>79506.815226</v>
+        <v>79506.815226000006</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.085226</v>
+        <v>22.085225999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1045.790000</v>
+        <v>1045.79</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.120000</v>
+        <v>-195.12</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>79517.882923</v>
+        <v>79517.882922999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>22.088301</v>
+        <v>22.088301000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1112.700000</v>
+        <v>1112.7</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.225000</v>
+        <v>-310.22500000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>79528.965532</v>
+        <v>79528.965532000002</v>
       </c>
       <c r="BO4" s="1">
         <v>22.091379</v>
       </c>
       <c r="BP4" s="1">
-        <v>1221.140000</v>
+        <v>1221.1400000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-490.470000</v>
+        <v>-490.47</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>79539.767935</v>
+        <v>79539.767934999996</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.094380</v>
+        <v>22.094380000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1342.380000</v>
+        <v>1342.38</v>
       </c>
       <c r="BV4" s="1">
-        <v>-687.463000</v>
+        <v>-687.46299999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>79550.987444</v>
+        <v>79550.987443999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.097497</v>
+        <v>22.097497000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1477.140000</v>
+        <v>1477.14</v>
       </c>
       <c r="CA4" s="1">
-        <v>-896.008000</v>
+        <v>-896.00800000000004</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>79562.580896</v>
+        <v>79562.580895999999</v>
       </c>
       <c r="CD4" s="1">
         <v>22.100717</v>
       </c>
       <c r="CE4" s="1">
-        <v>1827.530000</v>
+        <v>1827.53</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1391.450000</v>
+        <v>-1391.45</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>79389.921832</v>
+        <v>79389.921832000007</v>
       </c>
       <c r="B5" s="1">
-        <v>22.052756</v>
+        <v>22.052755999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>904.850000</v>
+        <v>904.85</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.011000</v>
+        <v>-200.011</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>79400.329132</v>
+        <v>79400.329131999999</v>
       </c>
       <c r="G5" s="1">
         <v>22.055647</v>
       </c>
       <c r="H5" s="1">
-        <v>922.817000</v>
+        <v>922.81700000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.567000</v>
+        <v>-169.56700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>79410.803305</v>
+        <v>79410.803304999994</v>
       </c>
       <c r="L5" s="1">
-        <v>22.058556</v>
+        <v>22.058555999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>947.147000</v>
+        <v>947.14700000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.079000</v>
+        <v>-121.07899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>79421.661529</v>
+        <v>79421.661529000005</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.061573</v>
+        <v>22.061572999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>954.243000</v>
+        <v>954.24300000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.711000</v>
+        <v>-104.711</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>79432.201315</v>
+        <v>79432.201314999998</v>
       </c>
       <c r="V5" s="1">
-        <v>22.064500</v>
+        <v>22.064499999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>961.149000</v>
+        <v>961.149</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.596000</v>
+        <v>-89.596000000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>79442.362563</v>
+        <v>79442.362563000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.067323</v>
+        <v>22.067322999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>968.574000</v>
+        <v>968.57399999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.802000</v>
+        <v>-77.802000000000007</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>79452.969008</v>
@@ -1342,1238 +1758,1238 @@
         <v>22.070269</v>
       </c>
       <c r="AG5" s="1">
-        <v>973.552000</v>
+        <v>973.55200000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.434500</v>
+        <v>-75.4345</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>79463.452967</v>
+        <v>79463.452967000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.073181</v>
+        <v>22.073181000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>980.820000</v>
+        <v>980.82</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.782300</v>
+        <v>-79.782300000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>79474.308916</v>
+        <v>79474.308915999994</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.076197</v>
+        <v>22.076197000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>988.968000</v>
+        <v>988.96799999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.080800</v>
+        <v>-91.080799999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>79485.144486</v>
+        <v>79485.144486000005</v>
       </c>
       <c r="AU5" s="1">
         <v>22.079207</v>
       </c>
       <c r="AV5" s="1">
-        <v>998.828000</v>
+        <v>998.82799999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.454000</v>
+        <v>-108.45399999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>79496.221143</v>
+        <v>79496.221143000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.082284</v>
+        <v>22.082284000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1007.150000</v>
+        <v>1007.15</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.920000</v>
+        <v>-123.92</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>79507.205544</v>
+        <v>79507.205543999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.085335</v>
+        <v>22.085335000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1045.790000</v>
+        <v>1045.79</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.116000</v>
+        <v>-195.11600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>79518.256906</v>
+        <v>79518.256905999995</v>
       </c>
       <c r="BJ5" s="1">
-        <v>22.088405</v>
+        <v>22.088405000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1112.660000</v>
+        <v>1112.6600000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.214000</v>
+        <v>-310.214</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>79529.360843</v>
+        <v>79529.360843000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.091489</v>
+        <v>22.091488999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1221.080000</v>
+        <v>1221.08</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-490.478000</v>
+        <v>-490.47800000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>79540.199955</v>
+        <v>79540.199955000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>22.094500</v>
+        <v>22.0945</v>
       </c>
       <c r="BU5" s="1">
-        <v>1342.410000</v>
+        <v>1342.41</v>
       </c>
       <c r="BV5" s="1">
-        <v>-687.468000</v>
+        <v>-687.46799999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>79551.821214</v>
+        <v>79551.821213999996</v>
       </c>
       <c r="BY5" s="1">
         <v>22.097728</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1477.160000</v>
+        <v>1477.16</v>
       </c>
       <c r="CA5" s="1">
-        <v>-896.100000</v>
+        <v>-896.1</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>79563.098752</v>
+        <v>79563.098752000005</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.100861</v>
+        <v>22.100860999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1827.480000</v>
+        <v>1827.48</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1391.550000</v>
+        <v>-1391.55</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>79390.259811</v>
+        <v>79390.259810999996</v>
       </c>
       <c r="B6" s="1">
-        <v>22.052850</v>
+        <v>22.052849999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>904.766000</v>
+        <v>904.76599999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-199.955000</v>
+        <v>-199.95500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>79401.015557</v>
+        <v>79401.015557000006</v>
       </c>
       <c r="G6" s="1">
-        <v>22.055838</v>
+        <v>22.055838000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>922.586000</v>
+        <v>922.58600000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.577000</v>
+        <v>-169.577</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>79411.491560</v>
+        <v>79411.491559999995</v>
       </c>
       <c r="L6" s="1">
-        <v>22.058748</v>
+        <v>22.058748000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>947.123000</v>
+        <v>947.12300000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.079000</v>
+        <v>-121.07899999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>79422.008729</v>
+        <v>79422.008728999994</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.061669</v>
+        <v>22.061668999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>954.281000</v>
+        <v>954.28099999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.750000</v>
+        <v>-104.75</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>79432.548220</v>
+        <v>79432.548219999997</v>
       </c>
       <c r="V6" s="1">
-        <v>22.064597</v>
+        <v>22.064596999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>961.135000</v>
+        <v>961.13499999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.561600</v>
+        <v>-89.561599999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>79442.710788</v>
+        <v>79442.710787999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.067420</v>
+        <v>22.067419999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>968.556000</v>
+        <v>968.55600000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.697300</v>
+        <v>-77.697299999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>79453.636623</v>
+        <v>79453.636622999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.070455</v>
+        <v>22.070454999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>973.461000</v>
+        <v>973.46100000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.294200</v>
+        <v>-75.294200000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>79464.126050</v>
+        <v>79464.126050000006</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.073368</v>
+        <v>22.073367999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>980.805000</v>
+        <v>980.80499999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.777300</v>
+        <v>-79.777299999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>79474.750324</v>
+        <v>79474.750323999993</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.076320</v>
+        <v>22.076319999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>988.972000</v>
+        <v>988.97199999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.078700</v>
+        <v>-91.078699999999998</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>79485.507066</v>
+        <v>79485.507066000006</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.079308</v>
+        <v>22.079308000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>998.825000</v>
+        <v>998.82500000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.467000</v>
+        <v>-108.467</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>79496.601575</v>
+        <v>79496.601574999993</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.082389</v>
+        <v>22.082388999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1007.140000</v>
+        <v>1007.14</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>79507.565640</v>
+        <v>79507.565640000001</v>
       </c>
       <c r="BE6" s="1">
         <v>22.085435</v>
       </c>
       <c r="BF6" s="1">
-        <v>1045.790000</v>
+        <v>1045.79</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.116000</v>
+        <v>-195.11600000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>79518.689449</v>
+        <v>79518.689448999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.088525</v>
+        <v>22.088525000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1112.670000</v>
+        <v>1112.67</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.239000</v>
+        <v>-310.23899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>79529.787404</v>
+        <v>79529.787404000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.091608</v>
+        <v>22.091608000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1221.050000</v>
+        <v>1221.05</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-490.463000</v>
+        <v>-490.46300000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>79540.625484</v>
+        <v>79540.625484000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>22.094618</v>
+        <v>22.094618000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1342.430000</v>
+        <v>1342.43</v>
       </c>
       <c r="BV6" s="1">
-        <v>-687.442000</v>
+        <v>-687.44200000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>79552.236862</v>
+        <v>79552.236862000005</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.097844</v>
+        <v>22.097843999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1477.140000</v>
+        <v>1477.14</v>
       </c>
       <c r="CA6" s="1">
-        <v>-896.113000</v>
+        <v>-896.11300000000006</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>79563.649278</v>
+        <v>79563.649277999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.101014</v>
+        <v>22.101013999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1826.570000</v>
+        <v>1826.57</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1391.670000</v>
+        <v>-1391.67</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>79390.944290</v>
+        <v>79390.944289999999</v>
       </c>
       <c r="B7" s="1">
-        <v>22.053040</v>
+        <v>22.053039999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>904.656000</v>
+        <v>904.65599999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-199.854000</v>
+        <v>-199.85400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>79401.361764</v>
+        <v>79401.361764000001</v>
       </c>
       <c r="G7" s="1">
-        <v>22.055934</v>
+        <v>22.055934000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>922.750000</v>
+        <v>922.75</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.277000</v>
+        <v>-169.27699999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>79411.836280</v>
+        <v>79411.836280000003</v>
       </c>
       <c r="L7" s="1">
         <v>22.058843</v>
       </c>
       <c r="M7" s="1">
-        <v>947.084000</v>
+        <v>947.08399999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.203000</v>
+        <v>-121.203</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>79422.357945</v>
+        <v>79422.357944999996</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.061766</v>
+        <v>22.061765999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>954.258000</v>
+        <v>954.25800000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.744000</v>
+        <v>-104.744</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>79432.931660</v>
+        <v>79432.931660000002</v>
       </c>
       <c r="V7" s="1">
-        <v>22.064703</v>
+        <v>22.064703000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>961.192000</v>
+        <v>961.19200000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.541800</v>
+        <v>-89.541799999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>79443.389774</v>
+        <v>79443.389773999996</v>
       </c>
       <c r="AA7" s="1">
         <v>22.067608</v>
       </c>
       <c r="AB7" s="1">
-        <v>968.599000</v>
+        <v>968.59900000000005</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.686700</v>
+        <v>-77.686700000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>79454.001210</v>
+        <v>79454.001210000002</v>
       </c>
       <c r="AF7" s="1">
         <v>22.070556</v>
       </c>
       <c r="AG7" s="1">
-        <v>973.438000</v>
+        <v>973.43799999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.336200</v>
+        <v>-75.336200000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>79464.497058</v>
+        <v>79464.497057999994</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.073471</v>
+        <v>22.073471000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>980.801000</v>
+        <v>980.80100000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.755900</v>
+        <v>-79.755899999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>79475.111907</v>
+        <v>79475.111906999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.076420</v>
+        <v>22.076419999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>988.965000</v>
+        <v>988.96500000000003</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.062500</v>
+        <v>-91.0625</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>79485.876086</v>
+        <v>79485.876086000004</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.079410</v>
+        <v>22.079409999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>998.834000</v>
+        <v>998.83399999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.427000</v>
+        <v>-108.42700000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>79496.961671</v>
+        <v>79496.961670999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.082489</v>
+        <v>22.082488999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1007.130000</v>
+        <v>1007.13</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.916000</v>
+        <v>-123.916</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>79507.988728</v>
+        <v>79507.988727999997</v>
       </c>
       <c r="BE7" s="1">
         <v>22.085552</v>
       </c>
       <c r="BF7" s="1">
-        <v>1045.790000</v>
+        <v>1045.79</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.117000</v>
+        <v>-195.11699999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>79519.037146</v>
+        <v>79519.037146000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>22.088621</v>
       </c>
       <c r="BK7" s="1">
-        <v>1112.670000</v>
+        <v>1112.67</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.222000</v>
+        <v>-310.22199999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>79530.190652</v>
+        <v>79530.190652000005</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.091720</v>
+        <v>22.091719999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1221.100000</v>
+        <v>1221.0999999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-490.473000</v>
+        <v>-490.47300000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>79541.037660</v>
+        <v>79541.037660000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.094733</v>
+        <v>22.094733000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1342.520000</v>
+        <v>1342.52</v>
       </c>
       <c r="BV7" s="1">
-        <v>-687.428000</v>
+        <v>-687.428</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>79552.686237</v>
+        <v>79552.686237000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.097968</v>
+        <v>22.097968000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1477.160000</v>
+        <v>1477.16</v>
       </c>
       <c r="CA7" s="1">
-        <v>-896.018000</v>
+        <v>-896.01800000000003</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>79564.179997</v>
+        <v>79564.179996999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.101161</v>
+        <v>22.101161000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1827.870000</v>
+        <v>1827.87</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1391.290000</v>
+        <v>-1391.29</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>79391.288514</v>
       </c>
       <c r="B8" s="1">
-        <v>22.053136</v>
+        <v>22.053135999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>904.826000</v>
+        <v>904.82600000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-199.856000</v>
+        <v>-199.85599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>79401.705493</v>
+        <v>79401.705493000001</v>
       </c>
       <c r="G8" s="1">
-        <v>22.056029</v>
+        <v>22.056028999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>922.580000</v>
+        <v>922.58</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.661000</v>
+        <v>-169.661</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>79412.188935</v>
+        <v>79412.188934999998</v>
       </c>
       <c r="L8" s="1">
-        <v>22.058941</v>
+        <v>22.058941000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>947.199000</v>
+        <v>947.19899999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.125000</v>
+        <v>-121.125</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>79423.014158</v>
+        <v>79423.014158000005</v>
       </c>
       <c r="Q8" s="1">
-        <v>22.061948</v>
+        <v>22.061948000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>954.216000</v>
+        <v>954.21600000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.746000</v>
+        <v>-104.746</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>79433.377034</v>
+        <v>79433.377034000005</v>
       </c>
       <c r="V8" s="1">
-        <v>22.064827</v>
+        <v>22.064827000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>961.198000</v>
+        <v>961.19799999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.572200</v>
+        <v>-89.572199999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>79443.757322</v>
+        <v>79443.757322000005</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.067710</v>
+        <v>22.067710000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>968.582000</v>
+        <v>968.58199999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.597100</v>
+        <v>-77.597099999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>79454.343422</v>
+        <v>79454.343422000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.070651</v>
+        <v>22.070651000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>973.451000</v>
+        <v>973.45100000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.207800</v>
+        <v>-75.207800000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>79464.846210</v>
+        <v>79464.846210000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.073568</v>
+        <v>22.073568000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>980.817000</v>
+        <v>980.81700000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.782000</v>
+        <v>-79.781999999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>79475.472995</v>
+        <v>79475.472995000004</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.076520</v>
+        <v>22.076519999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>989.004000</v>
+        <v>989.00400000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.076500</v>
+        <v>-91.076499999999996</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>79486.300692</v>
+        <v>79486.300692000004</v>
       </c>
       <c r="AU8" s="1">
         <v>22.079528</v>
       </c>
       <c r="AV8" s="1">
-        <v>998.832000</v>
+        <v>998.83199999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.466000</v>
+        <v>-108.46599999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>79497.383765</v>
+        <v>79497.383765000006</v>
       </c>
       <c r="AZ8" s="1">
-        <v>22.082607</v>
+        <v>22.082606999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1007.130000</v>
+        <v>1007.13</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.906000</v>
+        <v>-123.90600000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>79508.288839</v>
+        <v>79508.288839000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.085636</v>
+        <v>22.085636000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1045.780000</v>
+        <v>1045.78</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.102000</v>
+        <v>-195.102</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>79519.412088</v>
+        <v>79519.412087999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.088726</v>
+        <v>22.088726000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1112.670000</v>
+        <v>1112.67</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.231000</v>
+        <v>-310.23099999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>79530.597904</v>
+        <v>79530.597903999995</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.091833</v>
+        <v>22.091833000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1221.050000</v>
+        <v>1221.05</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-490.475000</v>
+        <v>-490.47500000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>79541.468684</v>
+        <v>79541.468684000007</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.094852</v>
+        <v>22.094851999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1342.510000</v>
+        <v>1342.51</v>
       </c>
       <c r="BV8" s="1">
-        <v>-687.343000</v>
+        <v>-687.34299999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>79553.118253</v>
+        <v>79553.118252999993</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.098088</v>
+        <v>22.098088000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1477.090000</v>
+        <v>1477.09</v>
       </c>
       <c r="CA8" s="1">
-        <v>-896.049000</v>
+        <v>-896.04899999999998</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>79564.695837</v>
+        <v>79564.695837000007</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.101304</v>
+        <v>22.101303999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1827.240000</v>
+        <v>1827.24</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1390.040000</v>
+        <v>-1390.04</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>79391.631288</v>
+        <v>79391.631288000004</v>
       </c>
       <c r="B9" s="1">
         <v>22.053231</v>
       </c>
       <c r="C9" s="1">
-        <v>904.921000</v>
+        <v>904.92100000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>-199.906000</v>
+        <v>-199.90600000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>79402.362195</v>
+        <v>79402.362194999994</v>
       </c>
       <c r="G9" s="1">
-        <v>22.056212</v>
+        <v>22.056211999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>922.986000</v>
+        <v>922.98599999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.065000</v>
+        <v>-170.065</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>79412.849110</v>
+        <v>79412.849109999996</v>
       </c>
       <c r="L9" s="1">
-        <v>22.059125</v>
+        <v>22.059125000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>947.107000</v>
+        <v>947.10699999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.196000</v>
+        <v>-121.196</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>79423.403975</v>
+        <v>79423.403974999994</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.062057</v>
+        <v>22.062056999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>954.205000</v>
+        <v>954.20500000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.720000</v>
+        <v>-104.72</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>79433.617958</v>
+        <v>79433.617958000003</v>
       </c>
       <c r="V9" s="1">
-        <v>22.064894</v>
+        <v>22.064893999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>961.254000</v>
+        <v>961.25400000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.518900</v>
+        <v>-89.518900000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>79444.106492</v>
+        <v>79444.106492000006</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.067807</v>
+        <v>22.067806999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>968.565000</v>
+        <v>968.56500000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.687900</v>
+        <v>-77.687899999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>79454.689662</v>
+        <v>79454.689662000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.070747</v>
+        <v>22.070747000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>973.422000</v>
+        <v>973.42200000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.415700</v>
+        <v>-75.415700000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>79465.193904</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.073665</v>
+        <v>22.073664999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>980.799000</v>
+        <v>980.79899999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.768400</v>
+        <v>-79.7684</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>79475.899058</v>
+        <v>79475.899057999995</v>
       </c>
       <c r="AP9" s="1">
         <v>22.076639</v>
       </c>
       <c r="AQ9" s="1">
-        <v>988.969000</v>
+        <v>988.96900000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.078000</v>
+        <v>-91.078000000000003</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>79486.602228</v>
+        <v>79486.602228000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.079612</v>
+        <v>22.079612000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>998.835000</v>
+        <v>998.83500000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.446000</v>
+        <v>-108.446</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>79497.679877</v>
+        <v>79497.679877000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.082689</v>
+        <v>22.082688999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1007.140000</v>
+        <v>1007.14</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.911000</v>
+        <v>-123.911</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>79508.648904</v>
+        <v>79508.648904000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>22.085736</v>
+        <v>22.085736000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1045.800000</v>
+        <v>1045.8</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.122000</v>
+        <v>-195.12200000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>79519.786606</v>
+        <v>79519.786605999994</v>
       </c>
       <c r="BJ9" s="1">
-        <v>22.088830</v>
+        <v>22.088830000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1112.680000</v>
+        <v>1112.68</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.231000</v>
+        <v>-310.23099999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>79530.996190</v>
+        <v>79530.996190000005</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.091943</v>
+        <v>22.091943000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1221.090000</v>
+        <v>1221.0899999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-490.489000</v>
+        <v>-490.48899999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>79541.899211</v>
+        <v>79541.899210999996</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.094972</v>
+        <v>22.094971999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1342.600000</v>
+        <v>1342.6</v>
       </c>
       <c r="BV9" s="1">
-        <v>-687.388000</v>
+        <v>-687.38800000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>79553.575531</v>
+        <v>79553.575530999995</v>
       </c>
       <c r="BY9" s="1">
         <v>22.098215</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1477.080000</v>
+        <v>1477.08</v>
       </c>
       <c r="CA9" s="1">
-        <v>-896.146000</v>
+        <v>-896.14599999999996</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>79565.216673</v>
+        <v>79565.216673000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.101449</v>
+        <v>22.101448999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1826.070000</v>
+        <v>1826.07</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1391.210000</v>
+        <v>-1391.21</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>79392.287469</v>
+        <v>79392.287469000003</v>
       </c>
       <c r="B10" s="1">
-        <v>22.053413</v>
+        <v>22.053412999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>904.671000</v>
+        <v>904.67100000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.058000</v>
+        <v>-200.05799999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>79402.742164</v>
+        <v>79402.742163999996</v>
       </c>
       <c r="G10" s="1">
         <v>22.056317</v>
       </c>
       <c r="H10" s="1">
-        <v>922.971000</v>
+        <v>922.971</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.934000</v>
+        <v>-169.934</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>79413.225611</v>
+        <v>79413.225611000002</v>
       </c>
       <c r="L10" s="1">
-        <v>22.059229</v>
+        <v>22.059228999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>947.071000</v>
+        <v>947.07100000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.978000</v>
+        <v>-120.97799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>79423.753159</v>
@@ -2582,1812 +2998,1812 @@
         <v>22.062154</v>
       </c>
       <c r="R10" s="1">
-        <v>954.255000</v>
+        <v>954.255</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.715000</v>
+        <v>-104.715</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>79433.958873</v>
+        <v>79433.958872999996</v>
       </c>
       <c r="V10" s="1">
-        <v>22.064989</v>
+        <v>22.064989000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>961.098000</v>
+        <v>961.09799999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.635300</v>
+        <v>-89.635300000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>79444.455218</v>
+        <v>79444.455218000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.067904</v>
+        <v>22.067903999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>968.573000</v>
+        <v>968.57299999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.701600</v>
+        <v>-77.701599999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>79455.122637</v>
+        <v>79455.122636999993</v>
       </c>
       <c r="AF10" s="1">
         <v>22.070867</v>
       </c>
       <c r="AG10" s="1">
-        <v>973.431000</v>
+        <v>973.43100000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.315700</v>
+        <v>-75.315700000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>79465.632368</v>
+        <v>79465.632368000006</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.073787</v>
+        <v>22.073786999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>980.821000</v>
+        <v>980.82100000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.785700</v>
+        <v>-79.785700000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>79476.189250</v>
+        <v>79476.189249999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.076719</v>
+        <v>22.076719000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>988.968000</v>
+        <v>988.96799999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.063900</v>
+        <v>-91.063900000000004</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>79486.968771</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.079714</v>
+        <v>22.079713999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>998.825000</v>
+        <v>998.82500000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.464000</v>
+        <v>-108.464</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>79498.039019</v>
+        <v>79498.039019000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.082789</v>
+        <v>22.082788999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1007.120000</v>
+        <v>1007.12</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>79509.007046</v>
+        <v>79509.007045999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.085835</v>
+        <v>22.085834999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1045.810000</v>
+        <v>1045.81</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.126000</v>
+        <v>-195.126</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>79520.537511</v>
+        <v>79520.537511000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.089038</v>
+        <v>22.089037999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1112.670000</v>
+        <v>1112.67</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.240000</v>
+        <v>-310.24</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>79531.429657</v>
+        <v>79531.429657000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.092064</v>
+        <v>22.092064000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1221.090000</v>
+        <v>1221.0899999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-490.508000</v>
+        <v>-490.50799999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>79542.306426</v>
+        <v>79542.306425999996</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.095085</v>
+        <v>22.095085000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1342.560000</v>
+        <v>1342.56</v>
       </c>
       <c r="BV10" s="1">
-        <v>-687.350000</v>
+        <v>-687.35</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>79554.023776</v>
+        <v>79554.023776000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.098340</v>
+        <v>22.09834</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1477.160000</v>
+        <v>1477.16</v>
       </c>
       <c r="CA10" s="1">
-        <v>-896.066000</v>
+        <v>-896.06600000000003</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>79565.734955</v>
+        <v>79565.734955000007</v>
       </c>
       <c r="CD10" s="1">
-        <v>22.101593</v>
+        <v>22.101593000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1826.260000</v>
+        <v>1826.26</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1390.840000</v>
+        <v>-1390.84</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>79392.654000</v>
+        <v>79392.653999999995</v>
       </c>
       <c r="B11" s="1">
-        <v>22.053515</v>
+        <v>22.053515000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>904.771000</v>
+        <v>904.77099999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.065000</v>
+        <v>-200.065</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>79403.084866</v>
+        <v>79403.084866000005</v>
       </c>
       <c r="G11" s="1">
-        <v>22.056412</v>
+        <v>22.056412000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>922.813000</v>
+        <v>922.81299999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.806000</v>
+        <v>-169.80600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>79413.570293</v>
+        <v>79413.570292999997</v>
       </c>
       <c r="L11" s="1">
-        <v>22.059325</v>
+        <v>22.059325000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>947.302000</v>
+        <v>947.30200000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.105000</v>
+        <v>-121.105</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>79424.101956</v>
+        <v>79424.101955999999</v>
       </c>
       <c r="Q11" s="1">
         <v>22.062251</v>
       </c>
       <c r="R11" s="1">
-        <v>954.238000</v>
+        <v>954.23800000000006</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.757000</v>
+        <v>-104.75700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>79434.388378</v>
+        <v>79434.388378000003</v>
       </c>
       <c r="V11" s="1">
-        <v>22.065108</v>
+        <v>22.065107999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>961.095000</v>
+        <v>961.09500000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.614100</v>
+        <v>-89.614099999999993</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>79444.888683</v>
+        <v>79444.888682999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.068025</v>
+        <v>22.068024999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>968.557000</v>
+        <v>968.55700000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.732700</v>
+        <v>-77.732699999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>79455.404397</v>
+        <v>79455.404397000006</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.070946</v>
+        <v>22.070945999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>973.459000</v>
+        <v>973.45899999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.328000</v>
+        <v>-75.328000000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>79465.892272</v>
+        <v>79465.892271999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.073859</v>
+        <v>22.073858999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>980.832000</v>
+        <v>980.83199999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.757700</v>
+        <v>-79.7577</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>79476.553283</v>
+        <v>79476.553283000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.076820</v>
+        <v>22.076820000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>988.974000</v>
+        <v>988.97400000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.074800</v>
+        <v>-91.074799999999996</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>79487.333363</v>
+        <v>79487.333362999998</v>
       </c>
       <c r="AU11" s="1">
         <v>22.079815</v>
       </c>
       <c r="AV11" s="1">
-        <v>998.838000</v>
+        <v>998.83799999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.452000</v>
+        <v>-108.452</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>79498.399077</v>
+        <v>79498.399076999995</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.082889</v>
+        <v>22.082889000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1007.120000</v>
+        <v>1007.12</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.936000</v>
+        <v>-123.93600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>79509.732661</v>
+        <v>79509.732661000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.086037</v>
+        <v>22.086037000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1045.770000</v>
+        <v>1045.77</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.112000</v>
+        <v>-195.11199999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>79520.912041</v>
+        <v>79520.912041000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.089142</v>
+        <v>22.089141999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1112.690000</v>
+        <v>1112.69</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.215000</v>
+        <v>-310.21499999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>79531.815544</v>
+        <v>79531.815543999997</v>
       </c>
       <c r="BO11" s="1">
         <v>22.092171</v>
       </c>
       <c r="BP11" s="1">
-        <v>1221.090000</v>
+        <v>1221.0899999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-490.520000</v>
+        <v>-490.52</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>79542.736954</v>
+        <v>79542.736954000007</v>
       </c>
       <c r="BT11" s="1">
         <v>22.095205</v>
       </c>
       <c r="BU11" s="1">
-        <v>1342.550000</v>
+        <v>1342.55</v>
       </c>
       <c r="BV11" s="1">
-        <v>-687.327000</v>
+        <v>-687.327</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>79554.757498</v>
+        <v>79554.757498000006</v>
       </c>
       <c r="BY11" s="1">
         <v>22.098544</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1477.020000</v>
+        <v>1477.02</v>
       </c>
       <c r="CA11" s="1">
-        <v>-896.092000</v>
+        <v>-896.09199999999998</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>79566.606924</v>
+        <v>79566.606924000007</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.101835</v>
+        <v>22.101835000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1826.920000</v>
+        <v>1826.92</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1390.110000</v>
+        <v>-1390.11</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>79392.999217</v>
+        <v>79392.999217000004</v>
       </c>
       <c r="B12" s="1">
         <v>22.053611</v>
       </c>
       <c r="C12" s="1">
-        <v>904.741000</v>
+        <v>904.74099999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-199.984000</v>
+        <v>-199.98400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>79403.428594</v>
+        <v>79403.428593999997</v>
       </c>
       <c r="G12" s="1">
-        <v>22.056508</v>
+        <v>22.056508000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>922.853000</v>
+        <v>922.85299999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.884000</v>
+        <v>-169.88399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>79413.915508</v>
+        <v>79413.915508000006</v>
       </c>
       <c r="L12" s="1">
         <v>22.059421</v>
       </c>
       <c r="M12" s="1">
-        <v>947.181000</v>
+        <v>947.18100000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.043000</v>
+        <v>-121.04300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>79424.529398</v>
+        <v>79424.529397999999</v>
       </c>
       <c r="Q12" s="1">
         <v>22.062369</v>
       </c>
       <c r="R12" s="1">
-        <v>954.231000</v>
+        <v>954.23099999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.737000</v>
+        <v>-104.73699999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>79434.657738</v>
+        <v>79434.657737999994</v>
       </c>
       <c r="V12" s="1">
-        <v>22.065183</v>
+        <v>22.065183000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>961.007000</v>
+        <v>961.00699999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.622200</v>
+        <v>-89.622200000000007</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>79445.168427</v>
+        <v>79445.168426999997</v>
       </c>
       <c r="AA12" s="1">
         <v>22.068102</v>
       </c>
       <c r="AB12" s="1">
-        <v>968.503000</v>
+        <v>968.50300000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.713200</v>
+        <v>-77.713200000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>79455.746109</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.071041</v>
+        <v>22.071041000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>973.415000</v>
+        <v>973.41499999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.266800</v>
+        <v>-75.266800000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>79466.241456</v>
+        <v>79466.241456000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.073956</v>
+        <v>22.073955999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>980.799000</v>
+        <v>980.79899999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.735200</v>
+        <v>-79.735200000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>79476.912398</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.076920</v>
+        <v>22.076920000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>988.983000</v>
+        <v>988.98299999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.062100</v>
+        <v>-91.062100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>79488.066914</v>
+        <v>79488.066913999995</v>
       </c>
       <c r="AU12" s="1">
         <v>22.080019</v>
       </c>
       <c r="AV12" s="1">
-        <v>998.840000</v>
+        <v>998.84</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.457000</v>
+        <v>-108.45699999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>79499.117779</v>
+        <v>79499.117778999993</v>
       </c>
       <c r="AZ12" s="1">
         <v>22.083088</v>
       </c>
       <c r="BA12" s="1">
-        <v>1007.130000</v>
+        <v>1007.13</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.917000</v>
+        <v>-123.917</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>79510.094444</v>
+        <v>79510.094444000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.086137</v>
+        <v>22.086137000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1045.770000</v>
+        <v>1045.77</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.115000</v>
+        <v>-195.11500000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>79521.288950</v>
+        <v>79521.288950000002</v>
       </c>
       <c r="BJ12" s="1">
         <v>22.089247</v>
       </c>
       <c r="BK12" s="1">
-        <v>1112.660000</v>
+        <v>1112.6600000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.223000</v>
+        <v>-310.22300000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>79532.232183</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.092287</v>
+        <v>22.092286999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1221.040000</v>
+        <v>1221.04</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-490.483000</v>
+        <v>-490.483</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>79543.486906</v>
+        <v>79543.486906000006</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.095413</v>
+        <v>22.095413000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1342.550000</v>
+        <v>1342.55</v>
       </c>
       <c r="BV12" s="1">
-        <v>-687.273000</v>
+        <v>-687.27300000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>79554.893402</v>
+        <v>79554.893402000002</v>
       </c>
       <c r="BY12" s="1">
         <v>22.098582</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1477.050000</v>
+        <v>1477.05</v>
       </c>
       <c r="CA12" s="1">
-        <v>-896.067000</v>
+        <v>-896.06700000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>79566.819706</v>
+        <v>79566.819705999995</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.101894</v>
+        <v>22.101894000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1826.380000</v>
+        <v>1826.38</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1391.240000</v>
+        <v>-1391.24</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>79393.341951</v>
+        <v>79393.341950999995</v>
       </c>
       <c r="B13" s="1">
-        <v>22.053706</v>
+        <v>22.053705999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>904.987000</v>
+        <v>904.98699999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-199.910000</v>
+        <v>-199.91</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>79403.855650</v>
+        <v>79403.855649999998</v>
       </c>
       <c r="G13" s="1">
-        <v>22.056627</v>
+        <v>22.056626999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>923.062000</v>
+        <v>923.06200000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.769000</v>
+        <v>-169.76900000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>79414.335158</v>
+        <v>79414.335158000002</v>
       </c>
       <c r="L13" s="1">
         <v>22.059538</v>
       </c>
       <c r="M13" s="1">
-        <v>947.158000</v>
+        <v>947.15800000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.135000</v>
+        <v>-121.13500000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>79424.797734</v>
+        <v>79424.797734000007</v>
       </c>
       <c r="Q13" s="1">
-        <v>22.062444</v>
+        <v>22.062443999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>954.264000</v>
+        <v>954.26400000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.773000</v>
+        <v>-104.773</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>79435.002424</v>
+        <v>79435.002424000006</v>
       </c>
       <c r="V13" s="1">
-        <v>22.065278</v>
+        <v>22.065277999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>961.141000</v>
+        <v>961.14099999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.564000</v>
+        <v>-89.563999999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>79445.518622</v>
+        <v>79445.518622000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>22.068200</v>
+        <v>22.068200000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>968.579000</v>
+        <v>968.57899999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.726700</v>
+        <v>-77.726699999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>79456.091324</v>
+        <v>79456.091323999994</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.071136</v>
+        <v>22.071135999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>973.482000</v>
+        <v>973.48199999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.328000</v>
+        <v>-75.328000000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>79466.939326</v>
+        <v>79466.939326000007</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.074150</v>
+        <v>22.074149999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>980.833000</v>
+        <v>980.83299999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.773000</v>
+        <v>-79.772999999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>79477.637568</v>
+        <v>79477.637568000006</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.077122</v>
+        <v>22.077121999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>988.960000</v>
+        <v>988.96</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.069800</v>
+        <v>-91.069800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>79488.447348</v>
+        <v>79488.447348000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>22.080124</v>
+        <v>22.080124000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>998.833000</v>
+        <v>998.83299999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.450000</v>
+        <v>-108.45</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>79499.496724</v>
+        <v>79499.496723999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.083194</v>
+        <v>22.083193999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1007.130000</v>
+        <v>1007.13</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.902000</v>
+        <v>-123.902</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>79510.456326</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.086238</v>
+        <v>22.086238000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1045.770000</v>
+        <v>1045.77</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.133000</v>
+        <v>-195.13300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>79521.990325</v>
+        <v>79521.990325000006</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.089442</v>
+        <v>22.089441999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1112.640000</v>
+        <v>1112.6400000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.236000</v>
+        <v>-310.23599999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>79532.950930</v>
+        <v>79532.950930000006</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.092486</v>
+        <v>22.092486000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1221.050000</v>
+        <v>1221.05</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-490.438000</v>
+        <v>-490.43799999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>79543.608921</v>
+        <v>79543.608921000006</v>
       </c>
       <c r="BT13" s="1">
         <v>22.095447</v>
       </c>
       <c r="BU13" s="1">
-        <v>1342.650000</v>
+        <v>1342.65</v>
       </c>
       <c r="BV13" s="1">
-        <v>-687.225000</v>
+        <v>-687.22500000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>79555.318969</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.098700</v>
+        <v>22.098700000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1477.020000</v>
+        <v>1477.02</v>
       </c>
       <c r="CA13" s="1">
-        <v>-896.034000</v>
+        <v>-896.03399999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>79567.330585</v>
+        <v>79567.330585000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.102036</v>
+        <v>22.102035999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1826.090000</v>
+        <v>1826.09</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1390.990000</v>
+        <v>-1390.99</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>79393.769504</v>
+        <v>79393.769503999996</v>
       </c>
       <c r="B14" s="1">
         <v>22.053825</v>
       </c>
       <c r="C14" s="1">
-        <v>904.796000</v>
+        <v>904.79600000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.067000</v>
+        <v>-200.06700000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>79404.134897</v>
+        <v>79404.134896999996</v>
       </c>
       <c r="G14" s="1">
         <v>22.056704</v>
       </c>
       <c r="H14" s="1">
-        <v>922.525000</v>
+        <v>922.52499999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-170.048000</v>
+        <v>-170.048</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>79414.630243</v>
+        <v>79414.630243000007</v>
       </c>
       <c r="L14" s="1">
-        <v>22.059620</v>
+        <v>22.059619999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>947.099000</v>
+        <v>947.09900000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.228000</v>
+        <v>-121.22799999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>79425.142453</v>
+        <v>79425.142452999993</v>
       </c>
       <c r="Q14" s="1">
-        <v>22.062540</v>
+        <v>22.062539999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>954.242000</v>
+        <v>954.24199999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.754000</v>
+        <v>-104.754</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>79435.346184</v>
+        <v>79435.346183999995</v>
       </c>
       <c r="V14" s="1">
-        <v>22.065374</v>
+        <v>22.065373999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>961.037000</v>
+        <v>961.03700000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.519700</v>
+        <v>-89.5197</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>79445.867818</v>
+        <v>79445.867817999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.068297</v>
+        <v>22.068297000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>968.544000</v>
+        <v>968.54399999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.693900</v>
+        <v>-77.693899999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>79456.773819</v>
+        <v>79456.773818999995</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.071326</v>
+        <v>22.071325999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>973.467000</v>
+        <v>973.46699999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.334500</v>
+        <v>-75.334500000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>79467.288013</v>
+        <v>79467.288012999998</v>
       </c>
       <c r="AK14" s="1">
         <v>22.074247</v>
       </c>
       <c r="AL14" s="1">
-        <v>980.810000</v>
+        <v>980.81</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.787100</v>
+        <v>-79.787099999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>79478.016515</v>
+        <v>79478.016514999996</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.077227</v>
+        <v>22.077227000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>988.980000</v>
+        <v>988.98</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.057600</v>
+        <v>-91.057599999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>79488.815873</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.080227</v>
+        <v>22.080227000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>998.832000</v>
+        <v>998.83199999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.440000</v>
+        <v>-108.44</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>79499.873186</v>
+        <v>79499.873185999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>22.083298</v>
+        <v>22.083297999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1007.110000</v>
+        <v>1007.11</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.915000</v>
+        <v>-123.91500000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>79511.129432</v>
+        <v>79511.129432000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.086425</v>
+        <v>22.086424999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1045.780000</v>
+        <v>1045.78</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.094000</v>
+        <v>-195.09399999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>79522.413877</v>
+        <v>79522.413876999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.089559</v>
+        <v>22.089559000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1112.660000</v>
+        <v>1112.6600000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.214000</v>
+        <v>-310.214</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>79533.067944</v>
+        <v>79533.067943999995</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.092519</v>
+        <v>22.092518999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1221.040000</v>
+        <v>1221.04</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-490.475000</v>
+        <v>-490.47500000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>79544.022585</v>
+        <v>79544.022584999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.095562</v>
+        <v>22.095562000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1342.600000</v>
+        <v>1342.6</v>
       </c>
       <c r="BV14" s="1">
-        <v>-687.178000</v>
+        <v>-687.178</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>79555.765866</v>
+        <v>79555.765866000002</v>
       </c>
       <c r="BY14" s="1">
         <v>22.098824</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1477.110000</v>
+        <v>1477.11</v>
       </c>
       <c r="CA14" s="1">
-        <v>-896.124000</v>
+        <v>-896.12400000000002</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>79567.927769</v>
+        <v>79567.927769000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.102202</v>
+        <v>22.102201999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1826.750000</v>
+        <v>1826.75</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1390.160000</v>
+        <v>-1390.16</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>79394.038832</v>
+        <v>79394.038832000006</v>
       </c>
       <c r="B15" s="1">
-        <v>22.053900</v>
+        <v>22.053899999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>904.763000</v>
+        <v>904.76300000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.112000</v>
+        <v>-200.11199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>79404.475648</v>
+        <v>79404.475648000007</v>
       </c>
       <c r="G15" s="1">
-        <v>22.056799</v>
+        <v>22.056799000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>922.735000</v>
+        <v>922.73500000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-170.085000</v>
+        <v>-170.08500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>79414.975987</v>
+        <v>79414.975986999998</v>
       </c>
       <c r="L15" s="1">
-        <v>22.059716</v>
+        <v>22.059716000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>947.038000</v>
+        <v>947.03800000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.021000</v>
+        <v>-121.021</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>79425.499077</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.062639</v>
+        <v>22.062639000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>954.261000</v>
+        <v>954.26099999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.716000</v>
+        <v>-104.71599999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>79436.034103</v>
+        <v>79436.034102999998</v>
       </c>
       <c r="V15" s="1">
-        <v>22.065565</v>
+        <v>22.065564999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>961.047000</v>
+        <v>961.04700000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.597600</v>
+        <v>-89.5976</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>79446.564665</v>
+        <v>79446.564664999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.068490</v>
+        <v>22.068490000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>968.670000</v>
+        <v>968.67</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.715700</v>
+        <v>-77.715699999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>79457.117547</v>
+        <v>79457.117547000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.071422</v>
+        <v>22.071421999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>973.459000</v>
+        <v>973.45899999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.329400</v>
+        <v>-75.329400000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>79467.639214</v>
+        <v>79467.639213999995</v>
       </c>
       <c r="AK15" s="1">
         <v>22.074344</v>
       </c>
       <c r="AL15" s="1">
-        <v>980.821000</v>
+        <v>980.82100000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.785100</v>
+        <v>-79.7851</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>79478.377567</v>
+        <v>79478.377567000003</v>
       </c>
       <c r="AP15" s="1">
         <v>22.077327</v>
       </c>
       <c r="AQ15" s="1">
-        <v>988.994000</v>
+        <v>988.99400000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.065000</v>
+        <v>-91.064999999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>79489.496206</v>
+        <v>79489.496205999996</v>
       </c>
       <c r="AU15" s="1">
         <v>22.080416</v>
       </c>
       <c r="AV15" s="1">
-        <v>998.850000</v>
+        <v>998.85</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.435000</v>
+        <v>-108.435</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>79500.616689</v>
+        <v>79500.616689000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.083505</v>
+        <v>22.083504999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1007.120000</v>
+        <v>1007.12</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.929000</v>
+        <v>-123.929</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>79511.564883</v>
+        <v>79511.564882999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.086546</v>
+        <v>22.086545999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1045.790000</v>
+        <v>1045.79</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.112000</v>
+        <v>-195.11199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>79522.788391</v>
+        <v>79522.788390999995</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.089663</v>
+        <v>22.089663000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1112.660000</v>
+        <v>1112.6600000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.215000</v>
+        <v>-310.21499999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>79533.476188</v>
+        <v>79533.476188000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.092632</v>
+        <v>22.092631999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1221.070000</v>
+        <v>1221.07</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-490.488000</v>
+        <v>-490.488</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>79544.449675</v>
+        <v>79544.449674999996</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.095680</v>
+        <v>22.095680000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1342.620000</v>
+        <v>1342.62</v>
       </c>
       <c r="BV15" s="1">
-        <v>-687.132000</v>
+        <v>-687.13199999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>79556.199401</v>
+        <v>79556.199401000005</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.098944</v>
+        <v>22.098943999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1477.090000</v>
+        <v>1477.09</v>
       </c>
       <c r="CA15" s="1">
-        <v>-896.172000</v>
+        <v>-896.17200000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>79568.413847</v>
+        <v>79568.413847000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.102337</v>
+        <v>22.102336999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1826.520000</v>
+        <v>1826.52</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1391.350000</v>
+        <v>-1391.35</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>79394.382061</v>
+        <v>79394.382060999997</v>
       </c>
       <c r="B16" s="1">
         <v>22.053995</v>
       </c>
       <c r="C16" s="1">
-        <v>904.760000</v>
+        <v>904.76</v>
       </c>
       <c r="D16" s="1">
-        <v>-199.914000</v>
+        <v>-199.91399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>79404.820368</v>
+        <v>79404.820368000001</v>
       </c>
       <c r="G16" s="1">
-        <v>22.056895</v>
+        <v>22.056895000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>922.872000</v>
+        <v>922.87199999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.989000</v>
+        <v>-169.989</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>79415.309266</v>
+        <v>79415.309265999997</v>
       </c>
       <c r="L16" s="1">
         <v>22.059808</v>
       </c>
       <c r="M16" s="1">
-        <v>947.264000</v>
+        <v>947.26400000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.150000</v>
+        <v>-121.15</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>79426.194964</v>
+        <v>79426.194963999995</v>
       </c>
       <c r="Q16" s="1">
         <v>22.062832</v>
       </c>
       <c r="R16" s="1">
-        <v>954.293000</v>
+        <v>954.29300000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.705000</v>
+        <v>-104.705</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>79436.375358</v>
+        <v>79436.375358000005</v>
       </c>
       <c r="V16" s="1">
-        <v>22.065660</v>
+        <v>22.065660000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>961.190000</v>
+        <v>961.19</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.495900</v>
+        <v>-89.495900000000006</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>79446.911864</v>
+        <v>79446.911863999994</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.068587</v>
+        <v>22.068587000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>968.594000</v>
+        <v>968.59400000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.755200</v>
+        <v>-77.755200000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>79457.467228</v>
+        <v>79457.467227999994</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.071519</v>
+        <v>22.071518999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>973.417000</v>
+        <v>973.41700000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.332500</v>
+        <v>-75.332499999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>79468.299879</v>
+        <v>79468.299878999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.074528</v>
+        <v>22.074528000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>980.827000</v>
+        <v>980.827</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.789600</v>
+        <v>-79.789599999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>79479.058606</v>
+        <v>79479.058606000006</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.077516</v>
+        <v>22.077515999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>988.996000</v>
+        <v>988.99599999999998</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.066100</v>
+        <v>-91.066100000000006</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>79489.936336</v>
+        <v>79489.936335999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.080538</v>
+        <v>22.080538000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>998.851000</v>
+        <v>998.851</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.455000</v>
+        <v>-108.455</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>79500.950993</v>
+        <v>79500.950993000006</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.083597</v>
+        <v>22.083597000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1007.120000</v>
+        <v>1007.12</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.906000</v>
+        <v>-123.90600000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>79511.925971</v>
+        <v>79511.925971000004</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.086646</v>
+        <v>22.086646000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1045.770000</v>
+        <v>1045.77</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.117000</v>
+        <v>-195.11699999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>79523.164820</v>
+        <v>79523.164820000005</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.089768</v>
+        <v>22.089767999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1112.660000</v>
+        <v>1112.6600000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.219000</v>
+        <v>-310.21899999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>79533.874934</v>
+        <v>79533.874934000007</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.092743</v>
+        <v>22.092742999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1221.060000</v>
+        <v>1221.06</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-490.481000</v>
+        <v>-490.48099999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>79544.875240</v>
+        <v>79544.875239999994</v>
       </c>
       <c r="BT16" s="1">
         <v>22.095799</v>
       </c>
       <c r="BU16" s="1">
-        <v>1342.550000</v>
+        <v>1342.55</v>
       </c>
       <c r="BV16" s="1">
-        <v>-687.143000</v>
+        <v>-687.14300000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>79556.616999</v>
+        <v>79556.616999000005</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.099060</v>
+        <v>22.099060000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1477.100000</v>
+        <v>1477.1</v>
       </c>
       <c r="CA16" s="1">
-        <v>-896.017000</v>
+        <v>-896.01700000000005</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>79568.931673</v>
+        <v>79568.931672999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>22.102481</v>
+        <v>22.102481000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1827.830000</v>
+        <v>1827.83</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1390.870000</v>
+        <v>-1390.87</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>79394.725293</v>
+        <v>79394.725292999996</v>
       </c>
       <c r="B17" s="1">
-        <v>22.054090</v>
+        <v>22.054089999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>904.676000</v>
+        <v>904.67600000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.071000</v>
+        <v>-200.071</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>79405.513279</v>
+        <v>79405.513279000006</v>
       </c>
       <c r="G17" s="1">
-        <v>22.057087</v>
+        <v>22.057086999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>923.009000</v>
+        <v>923.00900000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-170.147000</v>
+        <v>-170.14699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>79416.059218</v>
+        <v>79416.059217999995</v>
       </c>
       <c r="L17" s="1">
-        <v>22.060016</v>
+        <v>22.060016000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>947.108000</v>
+        <v>947.10799999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.964000</v>
+        <v>-120.964</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>79426.540675</v>
+        <v>79426.540674999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>22.062928</v>
+        <v>22.062927999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>954.276000</v>
+        <v>954.27599999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.737000</v>
+        <v>-104.73699999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>79436.720103</v>
@@ -4396,587 +4812,587 @@
         <v>22.065756</v>
       </c>
       <c r="W17" s="1">
-        <v>961.079000</v>
+        <v>961.07899999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.570300</v>
+        <v>-89.570300000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>79447.258072</v>
+        <v>79447.258071999997</v>
       </c>
       <c r="AA17" s="1">
         <v>22.068683</v>
       </c>
       <c r="AB17" s="1">
-        <v>968.567000</v>
+        <v>968.56700000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.669700</v>
+        <v>-77.669700000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>79458.132373</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.071703</v>
+        <v>22.071702999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>973.469000</v>
+        <v>973.46900000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.299200</v>
+        <v>-75.299199999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>79468.684252</v>
+        <v>79468.684252000006</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.074635</v>
+        <v>22.074635000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>980.806000</v>
+        <v>980.80600000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.787200</v>
+        <v>-79.787199999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>79479.455373</v>
+        <v>79479.455373000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.077626</v>
+        <v>22.077625999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>988.973000</v>
+        <v>988.97299999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.060400</v>
+        <v>-91.060400000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>79490.297952</v>
+        <v>79490.297951999994</v>
       </c>
       <c r="AU17" s="1">
         <v>22.080638</v>
       </c>
       <c r="AV17" s="1">
-        <v>998.832000</v>
+        <v>998.83199999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.447000</v>
+        <v>-108.447</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>79501.309600</v>
+        <v>79501.309599999993</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.083697</v>
+        <v>22.083697000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.913000</v>
+        <v>-123.913</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>79512.286577</v>
+        <v>79512.286577000006</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.086746</v>
+        <v>22.086746000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1045.770000</v>
+        <v>1045.77</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.109000</v>
+        <v>-195.10900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>79523.590388</v>
+        <v>79523.590387999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>22.089886</v>
       </c>
       <c r="BK17" s="1">
-        <v>1112.670000</v>
+        <v>1112.67</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.240000</v>
+        <v>-310.24</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>79534.486998</v>
+        <v>79534.486997999993</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.092913</v>
+        <v>22.092912999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1221.060000</v>
+        <v>1221.06</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-490.463000</v>
+        <v>-490.46300000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>79545.279446</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.095911</v>
+        <v>22.095911000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1342.550000</v>
+        <v>1342.55</v>
       </c>
       <c r="BV17" s="1">
-        <v>-687.065000</v>
+        <v>-687.06500000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>79557.038136</v>
+        <v>79557.038136000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.099177</v>
+        <v>22.099177000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1477.040000</v>
+        <v>1477.04</v>
       </c>
       <c r="CA17" s="1">
-        <v>-896.049000</v>
+        <v>-896.04899999999998</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>79569.472311</v>
+        <v>79569.472311000005</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.102631</v>
+        <v>22.102630999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1826.230000</v>
+        <v>1826.23</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1390.420000</v>
+        <v>-1390.42</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>79395.407292</v>
+        <v>79395.407292000004</v>
       </c>
       <c r="B18" s="1">
-        <v>22.054280</v>
+        <v>22.054279999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>904.685000</v>
+        <v>904.68499999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-199.964000</v>
+        <v>-199.964</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>79405.857007</v>
+        <v>79405.857006999999</v>
       </c>
       <c r="G18" s="1">
-        <v>22.057183</v>
+        <v>22.057182999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>922.870000</v>
+        <v>922.87</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.742000</v>
+        <v>-169.74199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>79416.371201</v>
+        <v>79416.371201000002</v>
       </c>
       <c r="L18" s="1">
-        <v>22.060103</v>
+        <v>22.060103000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>947.215000</v>
+        <v>947.21500000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.109000</v>
+        <v>-121.10899999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>79426.892340</v>
+        <v>79426.892340000006</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.063026</v>
+        <v>22.063026000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>954.318000</v>
+        <v>954.31799999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.761000</v>
+        <v>-104.761</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>79437.381765</v>
+        <v>79437.381764999998</v>
       </c>
       <c r="V18" s="1">
         <v>22.065939</v>
       </c>
       <c r="W18" s="1">
-        <v>961.048000</v>
+        <v>961.048</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.730000</v>
+        <v>-89.73</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>79447.929656</v>
+        <v>79447.929655999993</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.068869</v>
+        <v>22.068868999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>968.566000</v>
+        <v>968.56600000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.712700</v>
+        <v>-77.712699999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>79458.500921</v>
+        <v>79458.500920999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.071806</v>
+        <v>22.071805999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>973.467000</v>
+        <v>973.46699999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.293400</v>
+        <v>-75.293400000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>79469.034427</v>
+        <v>79469.034427000006</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.074732</v>
+        <v>22.074732000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>980.846000</v>
+        <v>980.846</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.776900</v>
+        <v>-79.776899999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>79479.839277</v>
+        <v>79479.839277000006</v>
       </c>
       <c r="AP18" s="1">
-        <v>22.077733</v>
+        <v>22.077732999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>988.975000</v>
+        <v>988.97500000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.063500</v>
+        <v>-91.063500000000005</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>79490.664464</v>
+        <v>79490.664464000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.080740</v>
+        <v>22.080739999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>998.840000</v>
+        <v>998.84</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.445000</v>
+        <v>-108.44499999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>79501.737648</v>
+        <v>79501.737647999995</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.083816</v>
+        <v>22.083815999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1007.110000</v>
+        <v>1007.11</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.902000</v>
+        <v>-123.902</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>79512.719570</v>
+        <v>79512.719570000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.086867</v>
+        <v>22.086867000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1045.790000</v>
+        <v>1045.79</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.108000</v>
+        <v>-195.108</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>79523.939107</v>
+        <v>79523.939106999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>22.089983</v>
       </c>
       <c r="BK18" s="1">
-        <v>1112.650000</v>
+        <v>1112.6500000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.212000</v>
+        <v>-310.21199999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>79534.703750</v>
+        <v>79534.703750000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.092973</v>
+        <v>22.092973000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1221.070000</v>
+        <v>1221.07</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-490.478000</v>
+        <v>-490.47800000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>79545.694102</v>
+        <v>79545.694101999994</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.096026</v>
+        <v>22.096025999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1342.570000</v>
+        <v>1342.57</v>
       </c>
       <c r="BV18" s="1">
-        <v>-687.022000</v>
+        <v>-687.02200000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>79557.466648</v>
+        <v>79557.466648000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.099296</v>
+        <v>22.099295999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1477.130000</v>
+        <v>1477.13</v>
       </c>
       <c r="CA18" s="1">
-        <v>-896.071000</v>
+        <v>-896.07100000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>79570.013943</v>
+        <v>79570.013942999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.102782</v>
+        <v>22.102782000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1827.680000</v>
+        <v>1827.68</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1391.470000</v>
+        <v>-1391.47</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>79395.752509</v>
+        <v>79395.752508999998</v>
       </c>
       <c r="B19" s="1">
-        <v>22.054376</v>
+        <v>22.054376000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>904.716000</v>
+        <v>904.71600000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-199.912000</v>
+        <v>-199.91200000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>79406.207680</v>
+        <v>79406.207680000007</v>
       </c>
       <c r="G19" s="1">
-        <v>22.057280</v>
+        <v>22.057279999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>923.227000</v>
+        <v>923.22699999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.386000</v>
+        <v>-169.386</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>79417.018480</v>
+        <v>79417.018479999999</v>
       </c>
       <c r="L19" s="1">
-        <v>22.060283</v>
+        <v>22.060282999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>947.187000</v>
+        <v>947.18700000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.079000</v>
+        <v>-121.07899999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>79427.560477</v>
+        <v>79427.560477000006</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.063211</v>
+        <v>22.063210999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>954.244000</v>
+        <v>954.24400000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.771000</v>
+        <v>-104.771</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>79437.746325</v>
       </c>
       <c r="V19" s="1">
-        <v>22.066041</v>
+        <v>22.066040999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>961.210000</v>
+        <v>961.21</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.511900</v>
+        <v>-89.511899999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>79448.302647</v>
+        <v>79448.302647000004</v>
       </c>
       <c r="AA19" s="1">
         <v>22.068973</v>
       </c>
       <c r="AB19" s="1">
-        <v>968.573000</v>
+        <v>968.57299999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.708600</v>
+        <v>-77.708600000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>79458.850568</v>
+        <v>79458.850567999994</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.071903</v>
+        <v>22.071902999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>973.451000</v>
+        <v>973.45100000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.347900</v>
+        <v>-75.347899999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>79469.380139</v>
+        <v>79469.380139000001</v>
       </c>
       <c r="AK19" s="1">
         <v>22.074828</v>
       </c>
       <c r="AL19" s="1">
-        <v>980.804000</v>
+        <v>980.80399999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.781800</v>
+        <v>-79.781800000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>79480.202350</v>
+        <v>79480.202350000007</v>
       </c>
       <c r="AP19" s="1">
-        <v>22.077834</v>
+        <v>22.077833999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>988.979000</v>
+        <v>988.97900000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.064800</v>
+        <v>-91.064800000000005</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>79491.093513</v>
@@ -4985,13 +5401,13 @@
         <v>22.080859</v>
       </c>
       <c r="AV19" s="1">
-        <v>998.835000</v>
+        <v>998.83500000000004</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.447000</v>
+        <v>-108.447</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>79502.029295</v>
@@ -5000,150 +5416,150 @@
         <v>22.083897</v>
       </c>
       <c r="BA19" s="1">
-        <v>1007.110000</v>
+        <v>1007.11</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.905000</v>
+        <v>-123.905</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>79513.007777</v>
+        <v>79513.007777000006</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.086947</v>
+        <v>22.086946999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1045.780000</v>
+        <v>1045.78</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.119000</v>
+        <v>-195.119</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>79524.315538</v>
+        <v>79524.315537999995</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.090088</v>
+        <v>22.090088000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1112.660000</v>
+        <v>1112.6600000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.221000</v>
+        <v>-310.221</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>79535.112452</v>
+        <v>79535.112452000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>22.093087</v>
+        <v>22.093087000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1221.070000</v>
+        <v>1221.07</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-490.500000</v>
+        <v>-490.5</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>79546.109254</v>
+        <v>79546.109253999995</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.096141</v>
+        <v>22.096140999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1342.510000</v>
+        <v>1342.51</v>
       </c>
       <c r="BV19" s="1">
-        <v>-686.953000</v>
+        <v>-686.95299999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>79557.890763</v>
+        <v>79557.890763000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.099414</v>
+        <v>22.099413999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1477.120000</v>
+        <v>1477.12</v>
       </c>
       <c r="CA19" s="1">
-        <v>-896.094000</v>
+        <v>-896.09400000000005</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>79570.552133</v>
+        <v>79570.552133000005</v>
       </c>
       <c r="CD19" s="1">
-        <v>22.102931</v>
+        <v>22.102931000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1826.960000</v>
+        <v>1826.96</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1390.190000</v>
+        <v>-1390.19</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>79396.093757</v>
+        <v>79396.093756999995</v>
       </c>
       <c r="B20" s="1">
-        <v>22.054470</v>
+        <v>22.054469999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>904.717000</v>
+        <v>904.71699999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-199.833000</v>
+        <v>-199.833</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>79406.870198</v>
+        <v>79406.870198000004</v>
       </c>
       <c r="G20" s="1">
         <v>22.057464</v>
       </c>
       <c r="H20" s="1">
-        <v>922.893000</v>
+        <v>922.89300000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.519000</v>
+        <v>-169.51900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>79417.395935</v>
+        <v>79417.395934999993</v>
       </c>
       <c r="L20" s="1">
         <v>22.060388</v>
       </c>
       <c r="M20" s="1">
-        <v>947.116000</v>
+        <v>947.11599999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.028000</v>
+        <v>-121.02800000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>79427.938897</v>
@@ -5152,1056 +5568,1056 @@
         <v>22.063316</v>
       </c>
       <c r="R20" s="1">
-        <v>954.198000</v>
+        <v>954.19799999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.760000</v>
+        <v>-104.76</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>79438.091540</v>
+        <v>79438.091539999994</v>
       </c>
       <c r="V20" s="1">
-        <v>22.066137</v>
+        <v>22.066137000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>961.164000</v>
+        <v>961.16399999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.492000</v>
+        <v>-89.492000000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>79448.659766</v>
+        <v>79448.659765999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.069072</v>
+        <v>22.069071999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>968.548000</v>
+        <v>968.548</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.745900</v>
+        <v>-77.745900000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>79459.192314</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.071998</v>
+        <v>22.071998000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>973.466000</v>
+        <v>973.46600000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.300600</v>
+        <v>-75.300600000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>79469.815628</v>
+        <v>79469.815627999997</v>
       </c>
       <c r="AK20" s="1">
         <v>22.074949</v>
       </c>
       <c r="AL20" s="1">
-        <v>980.823000</v>
+        <v>980.82299999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.770200</v>
+        <v>-79.770200000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>79480.618494</v>
+        <v>79480.618493999995</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.077950</v>
+        <v>22.077950000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>988.992000</v>
+        <v>988.99199999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.081500</v>
+        <v>-91.081500000000005</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>79491.394573</v>
+        <v>79491.394572999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.080943</v>
+        <v>22.080943000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>998.836000</v>
+        <v>998.83600000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.424000</v>
+        <v>-108.42400000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>79502.383439</v>
+        <v>79502.383438999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>22.083995</v>
+        <v>22.083995000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1007.080000</v>
+        <v>1007.08</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.912000</v>
+        <v>-123.91200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>79513.367377</v>
+        <v>79513.367377000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.087046</v>
+        <v>22.087046000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1045.770000</v>
+        <v>1045.77</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.112000</v>
+        <v>-195.11199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>79524.689025</v>
       </c>
       <c r="BJ20" s="1">
-        <v>22.090191</v>
+        <v>22.090191000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1112.670000</v>
+        <v>1112.67</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.194000</v>
+        <v>-310.19400000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>79535.939284</v>
+        <v>79535.939283999993</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.093316</v>
+        <v>22.093316000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1221.040000</v>
+        <v>1221.04</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-490.458000</v>
+        <v>-490.45800000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>79546.957739</v>
+        <v>79546.957739000005</v>
       </c>
       <c r="BT20" s="1">
         <v>22.096377</v>
       </c>
       <c r="BU20" s="1">
-        <v>1342.470000</v>
+        <v>1342.47</v>
       </c>
       <c r="BV20" s="1">
-        <v>-686.896000</v>
+        <v>-686.89599999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>79558.332165</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.099537</v>
+        <v>22.099537000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1477.060000</v>
+        <v>1477.06</v>
       </c>
       <c r="CA20" s="1">
-        <v>-895.980000</v>
+        <v>-895.98</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>79571.092772</v>
+        <v>79571.092772000004</v>
       </c>
       <c r="CD20" s="1">
         <v>22.103081</v>
       </c>
       <c r="CE20" s="1">
-        <v>1826.700000</v>
+        <v>1826.7</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1391.560000</v>
+        <v>-1391.56</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>79396.748475</v>
       </c>
       <c r="B21" s="1">
-        <v>22.054652</v>
+        <v>22.054652000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>904.657000</v>
+        <v>904.65700000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.040000</v>
+        <v>-200.04</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>79407.241373</v>
+        <v>79407.241372999997</v>
       </c>
       <c r="G21" s="1">
-        <v>22.057567</v>
+        <v>22.057566999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>923.290000</v>
+        <v>923.29</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.845000</v>
+        <v>-169.845</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>79417.734207</v>
+        <v>79417.734207000001</v>
       </c>
       <c r="L21" s="1">
         <v>22.060482</v>
       </c>
       <c r="M21" s="1">
-        <v>947.111000</v>
+        <v>947.11099999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.969000</v>
+        <v>-120.96899999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>79428.285639</v>
+        <v>79428.285638999994</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.063413</v>
+        <v>22.063413000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>954.261000</v>
+        <v>954.26099999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.734000</v>
+        <v>-104.73399999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>79438.443667</v>
       </c>
       <c r="V21" s="1">
-        <v>22.066234</v>
+        <v>22.066234000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>961.019000</v>
+        <v>961.01900000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.551700</v>
+        <v>-89.551699999999997</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>79449.009446</v>
+        <v>79449.009445999996</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.069169</v>
+        <v>22.069168999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>968.599000</v>
+        <v>968.59900000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.685500</v>
+        <v>-77.685500000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>79459.623335</v>
+        <v>79459.623334999997</v>
       </c>
       <c r="AF21" s="1">
         <v>22.072118</v>
       </c>
       <c r="AG21" s="1">
-        <v>973.434000</v>
+        <v>973.43399999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.330000</v>
+        <v>-75.33</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>79470.095866</v>
+        <v>79470.095866000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.075027</v>
+        <v>22.075026999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>980.826000</v>
+        <v>980.82600000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.798700</v>
+        <v>-79.798699999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>79480.920092</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.078033</v>
+        <v>22.078033000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>988.990000</v>
+        <v>988.99</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.096200</v>
+        <v>-91.096199999999996</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>79491.757661</v>
+        <v>79491.757660999996</v>
       </c>
       <c r="AU21" s="1">
-        <v>22.081044</v>
+        <v>22.081043999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>998.835000</v>
+        <v>998.83500000000004</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.442000</v>
+        <v>-108.44199999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>79502.744031</v>
+        <v>79502.744030999995</v>
       </c>
       <c r="AZ21" s="1">
-        <v>22.084096</v>
+        <v>22.084095999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.938000</v>
+        <v>-123.938</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>79513.728432</v>
+        <v>79513.728432000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.087147</v>
+        <v>22.087147000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1045.780000</v>
+        <v>1045.78</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.106000</v>
+        <v>-195.10599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>79525.438482</v>
+        <v>79525.438481999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>22.090400</v>
+        <v>22.090399999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1112.650000</v>
+        <v>1112.6500000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.211000</v>
+        <v>-310.21100000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>79536.348024</v>
+        <v>79536.348024000006</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.093430</v>
+        <v>22.093430000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1221.030000</v>
+        <v>1221.03</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-490.467000</v>
+        <v>-490.46699999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>79547.392403</v>
+        <v>79547.392403000005</v>
       </c>
       <c r="BT21" s="1">
         <v>22.096498</v>
       </c>
       <c r="BU21" s="1">
-        <v>1342.410000</v>
+        <v>1342.41</v>
       </c>
       <c r="BV21" s="1">
-        <v>-686.946000</v>
+        <v>-686.94600000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>79558.753766</v>
+        <v>79558.753765999994</v>
       </c>
       <c r="BY21" s="1">
-        <v>22.099654</v>
+        <v>22.099654000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1476.930000</v>
+        <v>1476.93</v>
       </c>
       <c r="CA21" s="1">
-        <v>-896.028000</v>
+        <v>-896.02800000000002</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>79571.942392</v>
+        <v>79571.942391999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.103317</v>
+        <v>22.103317000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1826.720000</v>
+        <v>1826.72</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1390.350000</v>
+        <v>-1390.35</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>79397.116010</v>
+        <v>79397.116009999998</v>
       </c>
       <c r="B22" s="1">
-        <v>22.054754</v>
+        <v>22.054753999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>904.785000</v>
+        <v>904.78499999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>-199.895000</v>
+        <v>-199.89500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>79407.586069</v>
+        <v>79407.586068999997</v>
       </c>
       <c r="G22" s="1">
-        <v>22.057663</v>
+        <v>22.057663000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>923.103000</v>
+        <v>923.10299999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.667000</v>
+        <v>-169.667</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>79418.085955</v>
+        <v>79418.085955000002</v>
       </c>
       <c r="L22" s="1">
-        <v>22.060579</v>
+        <v>22.060579000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>947.277000</v>
+        <v>947.27700000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.995000</v>
+        <v>-120.995</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>79428.634289</v>
+        <v>79428.634288999994</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.063510</v>
+        <v>22.063510000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>954.305000</v>
+        <v>954.30499999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.751000</v>
+        <v>-104.751</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>79438.871250</v>
+        <v>79438.871249999997</v>
       </c>
       <c r="V22" s="1">
-        <v>22.066353</v>
+        <v>22.066352999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>961.133000</v>
+        <v>961.13300000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.653200</v>
+        <v>-89.653199999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>79449.434021</v>
+        <v>79449.434020999994</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.069287</v>
+        <v>22.069286999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>968.600000</v>
+        <v>968.6</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.767100</v>
+        <v>-77.767099999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>79459.890183</v>
+        <v>79459.890182999996</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.072192</v>
+        <v>22.072192000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>973.455000</v>
+        <v>973.45500000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.321200</v>
+        <v>-75.321200000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>79470.445588</v>
+        <v>79470.445588000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>22.075124</v>
+        <v>22.075123999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>980.829000</v>
+        <v>980.82899999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.775000</v>
+        <v>-79.775000000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>79481.280330</v>
+        <v>79481.280329999994</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.078133</v>
+        <v>22.078133000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>988.978000</v>
+        <v>988.97799999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.097000</v>
+        <v>-91.096999999999994</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>79492.123197</v>
+        <v>79492.123196999994</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.081145</v>
+        <v>22.081144999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>998.824000</v>
+        <v>998.82399999999996</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.446000</v>
+        <v>-108.446</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>79503.460253</v>
+        <v>79503.460252999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.084295</v>
+        <v>22.084295000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>79514.453087</v>
+        <v>79514.453087000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.087348</v>
+        <v>22.087347999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1045.760000</v>
+        <v>1045.76</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.104000</v>
+        <v>-195.10400000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>79525.812969</v>
+        <v>79525.812969000006</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.090504</v>
+        <v>22.090503999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1112.640000</v>
+        <v>1112.6400000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.231000</v>
+        <v>-310.23099999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>79536.746771</v>
+        <v>79536.746771000006</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.093541</v>
+        <v>22.093540999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1221.030000</v>
+        <v>1221.03</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-490.485000</v>
+        <v>-490.48500000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>79547.818467</v>
+        <v>79547.818467000005</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.096616</v>
+        <v>22.096616000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1342.350000</v>
+        <v>1342.35</v>
       </c>
       <c r="BV22" s="1">
-        <v>-686.929000</v>
+        <v>-686.92899999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>79559.484405</v>
+        <v>79559.484404999996</v>
       </c>
       <c r="BY22" s="1">
         <v>22.099857</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1476.890000</v>
+        <v>1476.89</v>
       </c>
       <c r="CA22" s="1">
-        <v>-896.129000</v>
+        <v>-896.12900000000002</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>79572.172205</v>
+        <v>79572.172204999995</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.103381</v>
+        <v>22.103380999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1826.700000</v>
+        <v>1826.7</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1390.330000</v>
+        <v>-1390.33</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>79397.461723</v>
       </c>
       <c r="B23" s="1">
-        <v>22.054850</v>
+        <v>22.054849999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>904.737000</v>
+        <v>904.73699999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.958000</v>
+        <v>-199.958</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>79407.930316</v>
+        <v>79407.930315999998</v>
       </c>
       <c r="G23" s="1">
         <v>22.057758</v>
       </c>
       <c r="H23" s="1">
-        <v>922.977000</v>
+        <v>922.97699999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.619000</v>
+        <v>-169.619</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>79418.508494</v>
+        <v>79418.508493999994</v>
       </c>
       <c r="L23" s="1">
-        <v>22.060697</v>
+        <v>22.060697000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>947.174000</v>
+        <v>947.17399999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.005000</v>
+        <v>-121.005</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>79429.062336</v>
+        <v>79429.062336000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>22.063628</v>
+        <v>22.063628000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>954.267000</v>
+        <v>954.26700000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.763000</v>
+        <v>-104.76300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>79439.142532</v>
+        <v>79439.142531999998</v>
       </c>
       <c r="V23" s="1">
-        <v>22.066428</v>
+        <v>22.066427999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>961.086000</v>
+        <v>961.08600000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.498200</v>
+        <v>-89.498199999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>79449.788202</v>
+        <v>79449.788201999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.069386</v>
+        <v>22.069386000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>968.595000</v>
+        <v>968.59500000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.681700</v>
+        <v>-77.681700000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>79460.232423</v>
+        <v>79460.232422999994</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.072287</v>
+        <v>22.072286999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>973.485000</v>
+        <v>973.48500000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.331200</v>
+        <v>-75.331199999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>79470.789273</v>
+        <v>79470.789273000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.075219</v>
+        <v>22.075219000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>980.806000</v>
+        <v>980.80600000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.762900</v>
+        <v>-79.762900000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>79481.643227</v>
+        <v>79481.643226999993</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.078234</v>
+        <v>22.078233999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>988.979000</v>
+        <v>988.97900000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.071300</v>
+        <v>-91.071299999999994</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>79492.850863</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.081347</v>
+        <v>22.081347000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>998.823000</v>
+        <v>998.82299999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.458000</v>
+        <v>-108.458</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>79503.820845</v>
+        <v>79503.820844999995</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.084395</v>
+        <v>22.084395000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>79514.812686</v>
+        <v>79514.812686000005</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.087448</v>
+        <v>22.087447999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1045.780000</v>
+        <v>1045.78</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.099000</v>
+        <v>-195.09899999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>79526.189920</v>
+        <v>79526.189920000004</v>
       </c>
       <c r="BJ23" s="1">
         <v>22.090608</v>
       </c>
       <c r="BK23" s="1">
-        <v>1112.660000</v>
+        <v>1112.6600000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.235000</v>
+        <v>-310.23500000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>79537.482833</v>
+        <v>79537.482833000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.093745</v>
+        <v>22.093744999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1221.070000</v>
+        <v>1221.07</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-490.485000</v>
+        <v>-490.48500000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>79548.540150</v>
+        <v>79548.540150000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.096817</v>
+        <v>22.096817000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1342.280000</v>
+        <v>1342.28</v>
       </c>
       <c r="BV23" s="1">
-        <v>-686.952000</v>
+        <v>-686.952</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>79559.654995</v>
+        <v>79559.654995000004</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.099904</v>
+        <v>22.099903999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1477.090000</v>
+        <v>1477.09</v>
       </c>
       <c r="CA23" s="1">
-        <v>-896.078000</v>
+        <v>-896.07799999999997</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>79572.691844</v>
+        <v>79572.691844000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.103526</v>
+        <v>22.103525999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1826.620000</v>
+        <v>1826.62</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1391.500000</v>
+        <v>-1391.5</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>79397.803961</v>
+        <v>79397.803960999998</v>
       </c>
       <c r="B24" s="1">
-        <v>22.054946</v>
+        <v>22.054946000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>904.765000</v>
+        <v>904.76499999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-199.811000</v>
+        <v>-199.81100000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>79408.357868</v>
+        <v>79408.357868000006</v>
       </c>
       <c r="G24" s="1">
-        <v>22.057877</v>
+        <v>22.057877000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>922.851000</v>
+        <v>922.851</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.450000</v>
+        <v>-169.45</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>79418.779774</v>
+        <v>79418.779773999995</v>
       </c>
       <c r="L24" s="1">
         <v>22.060772</v>
       </c>
       <c r="M24" s="1">
-        <v>947.165000</v>
+        <v>947.16499999999996</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.092000</v>
+        <v>-121.092</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>79429.333679</v>
+        <v>79429.333679000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.063704</v>
+        <v>22.063704000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>954.302000</v>
+        <v>954.30200000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.722000</v>
+        <v>-104.72199999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>79439.489234</v>
+        <v>79439.489233999993</v>
       </c>
       <c r="V24" s="1">
-        <v>22.066525</v>
+        <v>22.066524999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>961.122000</v>
+        <v>961.12199999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.603300</v>
+        <v>-89.603300000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>79450.095684</v>
@@ -6210,694 +6626,695 @@
         <v>22.069471</v>
       </c>
       <c r="AB24" s="1">
-        <v>968.547000</v>
+        <v>968.54700000000003</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.701900</v>
+        <v>-77.701899999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>79460.578135</v>
+        <v>79460.578135000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.072383</v>
+        <v>22.072382999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>973.477000</v>
+        <v>973.47699999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.326200</v>
+        <v>-75.3262</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>79471.489655</v>
+        <v>79471.489654999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>22.075414</v>
+        <v>22.075413999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>980.818000</v>
+        <v>980.81799999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.773200</v>
+        <v>-79.773200000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>79482.362464</v>
+        <v>79482.362464000005</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.078434</v>
+        <v>22.078434000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>988.987000</v>
+        <v>988.98699999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.068500</v>
+        <v>-91.0685</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>79493.215387</v>
+        <v>79493.215387000004</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.081449</v>
+        <v>22.081448999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>998.846000</v>
+        <v>998.846</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.444000</v>
+        <v>-108.444</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>79504.179452</v>
+        <v>79504.179451999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.084494</v>
+        <v>22.084493999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.927000</v>
+        <v>-123.92700000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>79515.176750</v>
+        <v>79515.176749999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>22.087549</v>
+        <v>22.087548999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1045.770000</v>
+        <v>1045.77</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.111000</v>
+        <v>-195.11099999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>79526.881839</v>
+        <v>79526.881838999994</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.090801</v>
+        <v>22.090800999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1112.650000</v>
+        <v>1112.6500000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.220000</v>
+        <v>-310.22000000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>79537.589504</v>
+        <v>79537.589504000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.093775</v>
+        <v>22.093775000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1221.020000</v>
+        <v>1221.02</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-490.461000</v>
+        <v>-490.46100000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>79548.662199</v>
+        <v>79548.662198999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.096851</v>
+        <v>22.096851000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1342.230000</v>
+        <v>1342.23</v>
       </c>
       <c r="BV24" s="1">
-        <v>-686.897000</v>
+        <v>-686.89700000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>79560.080563</v>
+        <v>79560.080562999996</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.100022</v>
+        <v>22.100021999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1477.120000</v>
+        <v>1477.12</v>
       </c>
       <c r="CA24" s="1">
-        <v>-896.035000</v>
+        <v>-896.03499999999997</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>79573.209202</v>
+        <v>79573.209201999998</v>
       </c>
       <c r="CD24" s="1">
         <v>22.103669</v>
       </c>
       <c r="CE24" s="1">
-        <v>1826.040000</v>
+        <v>1826.04</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1391.280000</v>
+        <v>-1391.28</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>79398.226099</v>
+        <v>79398.226099000007</v>
       </c>
       <c r="B25" s="1">
-        <v>22.055063</v>
+        <v>22.055063000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>904.717000</v>
+        <v>904.71699999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.033000</v>
+        <v>-200.03299999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>79408.621212</v>
+        <v>79408.621211999998</v>
       </c>
       <c r="G25" s="1">
-        <v>22.057950</v>
+        <v>22.057950000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>922.570000</v>
+        <v>922.57</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.592000</v>
+        <v>-169.59200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>79419.124989</v>
+        <v>79419.124989000004</v>
       </c>
       <c r="L25" s="1">
-        <v>22.060868</v>
+        <v>22.060867999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>947.072000</v>
+        <v>947.072</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.036000</v>
+        <v>-121.036</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>79429.684328</v>
+        <v>79429.684328000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.063801</v>
+        <v>22.063801000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>954.284000</v>
+        <v>954.28399999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.735000</v>
+        <v>-104.735</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>79439.833954</v>
+        <v>79439.833954000002</v>
       </c>
       <c r="V25" s="1">
-        <v>22.066621</v>
+        <v>22.066621000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>961.108000</v>
+        <v>961.10799999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.575800</v>
+        <v>-89.575800000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>79450.788595</v>
+        <v>79450.788595000005</v>
       </c>
       <c r="AA25" s="1">
-        <v>22.069663</v>
+        <v>22.069662999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>968.617000</v>
+        <v>968.61699999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.786200</v>
+        <v>-77.786199999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>79461.266085</v>
+        <v>79461.266084999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.072574</v>
+        <v>22.072573999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>973.437000</v>
+        <v>973.43700000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.358900</v>
+        <v>-75.358900000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>79471.837816</v>
+        <v>79471.837815999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.075511</v>
+        <v>22.075510999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>980.800000</v>
+        <v>980.8</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.766400</v>
+        <v>-79.766400000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>79482.721530</v>
+        <v>79482.721529999995</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.078534</v>
+        <v>22.078534000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>989.002000</v>
+        <v>989.00199999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.080600</v>
+        <v>-91.080600000000004</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>79493.580972</v>
+        <v>79493.580971999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>22.081550</v>
+        <v>22.08155</v>
       </c>
       <c r="AV25" s="1">
-        <v>998.835000</v>
+        <v>998.83500000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.450000</v>
+        <v>-108.45</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>79504.844850</v>
+        <v>79504.844849999994</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.084679</v>
+        <v>22.084679000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1007.100000</v>
+        <v>1007.1</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>79515.843884</v>
+        <v>79515.843884000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.087734</v>
+        <v>22.087734000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1045.770000</v>
+        <v>1045.77</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.106000</v>
+        <v>-195.10599999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>79527.313358</v>
+        <v>79527.313357999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>22.090920</v>
+        <v>22.090920000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1112.680000</v>
+        <v>1112.68</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.241000</v>
+        <v>-310.24099999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>79537.984320</v>
+        <v>79537.984320000003</v>
       </c>
       <c r="BO25" s="1">
         <v>22.093885</v>
       </c>
       <c r="BP25" s="1">
-        <v>1221.070000</v>
+        <v>1221.07</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-490.463000</v>
+        <v>-490.46300000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>79549.100134</v>
+        <v>79549.100133999993</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.096972</v>
+        <v>22.096972000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1342.180000</v>
+        <v>1342.18</v>
       </c>
       <c r="BV25" s="1">
-        <v>-686.927000</v>
+        <v>-686.92700000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>79560.530930</v>
+        <v>79560.530929999994</v>
       </c>
       <c r="BY25" s="1">
         <v>22.100147</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1477.070000</v>
+        <v>1477.07</v>
       </c>
       <c r="CA25" s="1">
-        <v>-896.040000</v>
+        <v>-896.04</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>79573.759233</v>
+        <v>79573.759233000004</v>
       </c>
       <c r="CD25" s="1">
-        <v>22.103822</v>
+        <v>22.103822000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1826.480000</v>
+        <v>1826.48</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1390.410000</v>
+        <v>-1390.41</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>79398.503358</v>
+        <v>79398.503358000002</v>
       </c>
       <c r="B26" s="1">
-        <v>22.055140</v>
+        <v>22.055140000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>904.680000</v>
+        <v>904.68</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.052000</v>
+        <v>-200.05199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>79408.967420</v>
+        <v>79408.967420000001</v>
       </c>
       <c r="G26" s="1">
-        <v>22.058047</v>
+        <v>22.058046999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>923.242000</v>
+        <v>923.24199999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.822000</v>
+        <v>-169.822</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>79419.469709</v>
+        <v>79419.469708999997</v>
       </c>
       <c r="L26" s="1">
-        <v>22.060964</v>
+        <v>22.060963999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>946.986000</v>
+        <v>946.98599999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.118000</v>
+        <v>-121.11799999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>79430.035489</v>
+        <v>79430.035489000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.063899</v>
+        <v>22.063898999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>954.233000</v>
+        <v>954.23299999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.716000</v>
+        <v>-104.71599999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>79440.519957</v>
+        <v>79440.519956999997</v>
       </c>
       <c r="V26" s="1">
-        <v>22.066811</v>
+        <v>22.066811000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>961.051000</v>
+        <v>961.05100000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.606600</v>
+        <v>-89.6066</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>79451.138311</v>
+        <v>79451.138311000002</v>
       </c>
       <c r="AA26" s="1">
         <v>22.069761</v>
       </c>
       <c r="AB26" s="1">
-        <v>968.542000</v>
+        <v>968.54200000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.633800</v>
+        <v>-77.633799999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>79461.607333</v>
+        <v>79461.607333000007</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.072669</v>
+        <v>22.072669000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>973.431000</v>
+        <v>973.43100000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.341400</v>
+        <v>-75.341399999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>79472.188488</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.075608</v>
+        <v>22.075607999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>980.813000</v>
+        <v>980.81299999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.741200</v>
+        <v>-79.741200000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>79483.095053</v>
+        <v>79483.095052999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.078638</v>
+        <v>22.078638000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>988.979000</v>
+        <v>988.97900000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.080200</v>
+        <v>-91.080200000000005</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>79494.266444</v>
+        <v>79494.266443999993</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.081741</v>
+        <v>22.081741000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>998.812000</v>
+        <v>998.81200000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.449000</v>
+        <v>-108.449</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>79505.284553</v>
+        <v>79505.284553000005</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.084801</v>
+        <v>22.084800999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1007.110000</v>
+        <v>1007.11</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.933000</v>
+        <v>-123.93300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>79516.286797</v>
+        <v>79516.286796999993</v>
       </c>
       <c r="BE26" s="1">
         <v>22.087857</v>
       </c>
       <c r="BF26" s="1">
-        <v>1045.770000</v>
+        <v>1045.77</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.093000</v>
+        <v>-195.09299999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>79527.692312</v>
+        <v>79527.692311999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>22.091026</v>
+        <v>22.091025999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1112.610000</v>
+        <v>1112.6099999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.213000</v>
+        <v>-310.21300000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>79538.408877</v>
+        <v>79538.408876999994</v>
       </c>
       <c r="BO26" s="1">
         <v>22.094002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1221.020000</v>
+        <v>1221.02</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-490.482000</v>
+        <v>-490.48200000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>79549.528674</v>
+        <v>79549.528674000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>22.097091</v>
+        <v>22.097090999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1342.190000</v>
+        <v>1342.19</v>
       </c>
       <c r="BV26" s="1">
-        <v>-686.940000</v>
+        <v>-686.94</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>79560.961458</v>
+        <v>79560.961458000005</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.100267</v>
+        <v>22.100266999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1477.000000</v>
+        <v>1477</v>
       </c>
       <c r="CA26" s="1">
-        <v>-896.088000</v>
+        <v>-896.08799999999997</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>79574.289490</v>
+        <v>79574.289489999996</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.103969</v>
+        <v>22.103968999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.640000</v>
+        <v>1826.64</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1391.480000</v>
+        <v>-1391.48</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>